--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-897544.2442245469</v>
+        <v>-899431.8257409493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546511.2759428578</v>
+        <v>304738.5922828537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>30.35032698453893</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>61.63452494711053</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.9913792784364</v>
       </c>
       <c r="U4" t="n">
-        <v>94.62332623081474</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>225.4603876057576</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>144.54503968478</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>14.19510348422553</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>19.92836243732843</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>111.2047822927802</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>223.4413478696862</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>69.88805331244991</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>103.6823614795157</v>
       </c>
       <c r="C13" t="n">
-        <v>18.56760500781323</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>74.23837614724418</v>
       </c>
       <c r="G16" t="n">
-        <v>27.71082088042309</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>177.7059714321717</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>215.7053919670788</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>116.5097603535112</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>149.0799667719512</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2375,7 +2375,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.27249328109728</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>130.1982616958407</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>38.78243893493172</v>
+        <v>93.41221638965546</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>55.21598883571509</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752358</v>
+        <v>21.69119935396378</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463231</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.777806202926</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.815289262514</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>913.549590655764</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
         <v>882.8926947117852</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4434,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8649647332663</v>
       </c>
       <c r="U4" t="n">
-        <v>418.2614436197335</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V4" t="n">
-        <v>418.2614436197335</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W4" t="n">
-        <v>418.2614436197335</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1110.630459970126</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>699.6445551805186</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>281.6807470787055</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>684.3735766921516</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>684.3735766921516</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>684.3735766921516</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>684.3735766921516</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V7" t="n">
-        <v>684.3735766921516</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.984870679801</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="C8" t="n">
-        <v>903.0223537393897</v>
+        <v>1328.288804049173</v>
       </c>
       <c r="D8" t="n">
-        <v>903.0223537393897</v>
+        <v>970.0231054424221</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>584.2348528441778</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679801</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4896,28 +4896,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>509.3883323957195</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>506.3718661188911</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1120.26893587578</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.604255405482</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.124911043099</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.9901170420335</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>874.6385818722732</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X13" t="n">
-        <v>874.6385818722732</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.6385818722732</v>
+        <v>665.6859735286131</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>664.5909712050459</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M15" t="n">
-        <v>1609.589088435861</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>294.1440025502363</v>
+        <v>807.3465877976911</v>
       </c>
       <c r="C16" t="n">
-        <v>125.2078196223294</v>
+        <v>638.4104048697842</v>
       </c>
       <c r="D16" t="n">
-        <v>125.2078196223294</v>
+        <v>488.2937654574484</v>
       </c>
       <c r="E16" t="n">
-        <v>125.2078196223294</v>
+        <v>340.3806718750553</v>
       </c>
       <c r="F16" t="n">
-        <v>125.2078196223294</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557903</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609666</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609666</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240061</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X16" t="n">
-        <v>696.5850465240061</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y16" t="n">
-        <v>475.792467380476</v>
+        <v>988.9950526279308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>575.7664246322204</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527474</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N18" t="n">
-        <v>1210.105893490365</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1319.415289313285</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1030.286650526843</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>775.6021623209559</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W19" t="n">
-        <v>486.1849922839954</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X19" t="n">
-        <v>486.1849922839954</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5753,10 +5753,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>575.7664246322204</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>684.3745488722935</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>515.4383659443866</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>365.3217265320509</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1348.33044553573</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1124.545030325236</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>835.416391538794</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>905.1671280158237</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>684.3745488722935</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,28 +5972,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>337.3848305961194</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>337.3848305961194</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>337.3848305961194</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,49 +6148,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126481</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>263.5382936126481</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605672</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>379.1484955647068</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028581</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6470,22 +6470,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899876</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N30" t="n">
-        <v>1221.963989254138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163767</v>
+        <v>472.9363657332776</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698405</v>
+        <v>359.7610480867413</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274853</v>
+        <v>265.4052739557766</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264623</v>
+        <v>265.4052739557766</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>265.4052739557766</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
         <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353692</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1914.215760678332</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1770.056615875255</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1602.032065946131</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1368.664292441059</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1169.740669516543</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818924</v>
+        <v>936.0843647609529</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652456</v>
+        <v>763.8556791443061</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652456</v>
+        <v>598.8239652821467</v>
       </c>
     </row>
     <row r="32">
@@ -6680,31 +6680,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,16 +6716,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,10 +6786,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982983</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525407</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254963</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,46 +6920,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,10 +7023,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,10 +7108,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7260,10 +7260,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O39" t="n">
         <v>2623.573505376138</v>
@@ -7318,25 +7318,25 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,16 +7570,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,16 +7728,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>674.428562457161</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1442.796708849623</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>2247.208287113774</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>202.8611258896133</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10449,7 +10449,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10686,7 +10686,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>76.14961870242158</v>
       </c>
       <c r="C13" t="n">
-        <v>148.6792160908146</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>71.18267187568706</v>
       </c>
       <c r="G16" t="n">
-        <v>138.7827475829545</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>43.8415896262176</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>10.00426342195831</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>29.92420229305802</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>48.84084321165207</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>74.14855474183396</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338548</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>15.22278632709055</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>54.62977745472363</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801227</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437434</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897923</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>33.06989642127212</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.012949724099599e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728566</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950836</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="G2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
         <v>156411.6238950836</v>
       </c>
       <c r="I2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="J2" t="n">
         <v>156411.6238950835</v>
@@ -26341,13 +26341,13 @@
         <v>162728.854938108</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728569</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728569</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086704</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26424,37 +26424,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575885</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575921</v>
+        <v>787.7936905759237</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477238</v>
+        <v>18952.41620477235</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-647677.7424857164</v>
       </c>
       <c r="C6" t="n">
-        <v>-57709.8632711719</v>
+        <v>-57709.86327117187</v>
       </c>
       <c r="D6" t="n">
-        <v>-57709.86327117187</v>
+        <v>-57709.86327117193</v>
       </c>
       <c r="E6" t="n">
-        <v>-461523.5322211052</v>
+        <v>-461620.9913470772</v>
       </c>
       <c r="F6" t="n">
-        <v>63636.50425579105</v>
+        <v>63539.04512981883</v>
       </c>
       <c r="G6" t="n">
-        <v>63636.50425579105</v>
+        <v>63539.04512981886</v>
       </c>
       <c r="H6" t="n">
-        <v>63636.50425579105</v>
+        <v>63539.04512981889</v>
       </c>
       <c r="I6" t="n">
-        <v>63636.50425579106</v>
+        <v>63539.04512981878</v>
       </c>
       <c r="J6" t="n">
-        <v>-112786.7149368019</v>
+        <v>-112884.1740627741</v>
       </c>
       <c r="K6" t="n">
-        <v>2985.624900267227</v>
+        <v>2967.131162332839</v>
       </c>
       <c r="L6" t="n">
-        <v>32943.76042006805</v>
+        <v>32943.76042006801</v>
       </c>
       <c r="M6" t="n">
         <v>-91514.34801290205</v>
       </c>
       <c r="N6" t="n">
-        <v>43286.66722093521</v>
+        <v>43286.66722093504</v>
       </c>
       <c r="O6" t="n">
-        <v>43286.66722093521</v>
+        <v>43286.66722093517</v>
       </c>
       <c r="P6" t="n">
-        <v>-875.9380819103535</v>
+        <v>-875.9380819102662</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108364</v>
+        <v>12.92863350108379</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>351.5800430877229</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>308.0965757313585</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0.04372617964787651</v>
       </c>
       <c r="U4" t="n">
-        <v>191.658548011163</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>98.46238515859952</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>2.496509910248449</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>35.28694049715727</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.4700884959323</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>362.0020076349334</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>295.6712634489313</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>62.84052637229155</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>155.8216020765872</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="C31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="D31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="E31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="F31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="G31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="H31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="I31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="J31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="K31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="L31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="M31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="N31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="O31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="P31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="R31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="S31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="T31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="U31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="V31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="W31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="X31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285569</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30238,10 +30238,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,10 +31838,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>118.6626388367733</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31856,19 +31856,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>111.3199910445496</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>278.479916701576</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>168.9387261055273</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32239,7 +32239,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565519</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.7581524866007</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>352.8324835862117</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32473,13 +32473,13 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32552,22 +32552,22 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>188.7581524866007</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33026,28 +33026,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>425.8974584957646</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33260,31 +33260,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O30" t="n">
-        <v>340.8546090773502</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33521,7 +33521,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>212.6272478467031</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33758,13 +33758,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>224.6051223555648</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>128.9008123014165</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34472,10 +34472,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2864368749929</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35504,10 +35504,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>295.8083522701565</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>405.1037147397956</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>492.5097559335089</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35887,7 +35887,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>315.3819505248204</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>604.0985584184967</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>315.3819505248204</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>60.72709196759501</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>773.8981207559848</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O30" t="n">
-        <v>592.1206839096353</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412242</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043165</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>536.1982776746847</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37795,13 +37795,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>572.6057846157851</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>380.1668871337016</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
